--- a/Lab 6/truth table.xlsx
+++ b/Lab 6/truth table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Microprocessors\AVOCADOS\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2C310-48B2-4A4B-A5C8-75E5E9738461}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D86F5-7EA9-47C9-ABAD-C3286A8D602F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="11385" xr2:uid="{D3FEB88A-730B-4C6C-85EB-BC1CC7D1C8B6}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,13 +563,13 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P2" t="s">
@@ -622,13 +622,13 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P3">
@@ -681,13 +681,13 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P4">
@@ -740,13 +740,13 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P5">
@@ -799,13 +799,13 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P6">
@@ -858,13 +858,13 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P7">
@@ -917,13 +917,13 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P8">
@@ -941,12 +941,18 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -985,13 +991,13 @@
       <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P11" t="s">
@@ -1044,12 +1050,13 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
+      <c r="M12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s">
         <v>26</v>
       </c>
@@ -1100,12 +1107,13 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s">
         <v>26</v>
       </c>
@@ -1156,12 +1164,13 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s">
         <v>26</v>
       </c>
@@ -1212,12 +1221,13 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s">
         <v>26</v>
       </c>
@@ -1233,12 +1243,18 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="K17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1277,13 +1293,13 @@
       <c r="L18" t="s">
         <v>8</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P18" t="s">
@@ -1336,12 +1352,13 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
+      <c r="M19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s">
         <v>26</v>
       </c>
@@ -1357,12 +1374,18 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1401,13 +1424,13 @@
       <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P22" t="s">
@@ -1460,12 +1483,13 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
+      <c r="M23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s">
         <v>26</v>
       </c>
@@ -1516,12 +1540,13 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s">
-        <v>26</v>
-      </c>
+      <c r="M24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s">
         <v>26</v>
       </c>
@@ -1537,12 +1562,18 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1581,13 +1612,13 @@
       <c r="L27" t="s">
         <v>8</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P27" t="s">
@@ -1640,12 +1671,13 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s">
         <v>26</v>
       </c>

--- a/Lab 6/truth table.xlsx
+++ b/Lab 6/truth table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Microprocessors\AVOCADOS\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D86F5-7EA9-47C9-ABAD-C3286A8D602F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD1B3C9-05DC-4D51-90B1-C7306C2582E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="11385" xr2:uid="{D3FEB88A-730B-4C6C-85EB-BC1CC7D1C8B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="39">
   <si>
     <t>MemRead</t>
   </si>
@@ -157,18 +157,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,7 +180,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +498,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,195 +816,190 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>10011</v>
-      </c>
-      <c r="S7" t="s">
-        <v>24</v>
-      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>101</v>
-      </c>
-      <c r="R8">
-        <v>10011</v>
-      </c>
-      <c r="S8" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>10011</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>101</v>
+      </c>
+      <c r="R11">
+        <v>10011</v>
       </c>
       <c r="S11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1045,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>26</v>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s">
@@ -1111,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s">
@@ -1165,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1222,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s">
@@ -1242,7 +1231,6 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1347,16 +1335,16 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>26</v>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s">
@@ -1483,11 +1471,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>26</v>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s">
@@ -1540,11 +1528,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>26</v>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s">
@@ -1672,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>

--- a/Lab 6/truth table.xlsx
+++ b/Lab 6/truth table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Microprocessors\AVOCADOS\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD1B3C9-05DC-4D51-90B1-C7306C2582E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F1D74-A9C1-489C-9413-1609D9D19000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="11385" xr2:uid="{D3FEB88A-730B-4C6C-85EB-BC1CC7D1C8B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>MemRead</t>
   </si>
@@ -142,13 +142,35 @@
   </si>
   <si>
     <t>LUI</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0_add, 1_sub</t>
+  </si>
+  <si>
+    <t>0_left, 1_right</t>
+  </si>
+  <si>
+    <t>doesn’t matter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,15 +179,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,17 +200,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +543,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,8 +552,9 @@
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="10" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
@@ -519,6 +565,21 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -533,19 +594,19 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
@@ -592,19 +653,19 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3">
@@ -651,19 +712,19 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4">
@@ -710,19 +771,19 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5">
@@ -769,19 +830,19 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>1</v>
       </c>
       <c r="J6">
@@ -816,6 +877,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -824,6 +890,11 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -842,19 +913,19 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J9" t="s">
@@ -901,19 +972,19 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10">
@@ -958,19 +1029,19 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11">
@@ -1015,19 +1086,19 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12">
@@ -1072,19 +1143,19 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13">
@@ -1129,19 +1200,19 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14">
@@ -1186,19 +1257,19 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15">
@@ -1231,6 +1302,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1239,6 +1315,11 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1257,19 +1338,19 @@
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J18" t="s">
@@ -1316,19 +1397,19 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19">
@@ -1361,6 +1442,11 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="K20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1370,6 +1456,11 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="K21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1388,19 +1479,19 @@
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J22" t="s">
@@ -1447,19 +1538,19 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23">
@@ -1504,19 +1595,19 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24">
@@ -1549,6 +1640,11 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="K25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1558,6 +1654,11 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="K26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1576,19 +1677,19 @@
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J27" t="s">
@@ -1635,19 +1736,19 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
         <v>1</v>
       </c>
       <c r="J28">
